--- a/src/app/server/rekap_files/rekap_tugas.xlsx
+++ b/src/app/server/rekap_files/rekap_tugas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Nama</t>
   </si>
@@ -55,10 +55,10 @@
     <t>6289514312154</t>
   </si>
   <si>
-    <t>Sudah</t>
-  </si>
-  <si>
-    <t>https://wgdxgzraacfhfbxvxuzy.supabase.co/storage/v1/object/public/submissions/submissions/1741100107113.pdf</t>
+    <t>Yoga</t>
+  </si>
+  <si>
+    <t>628817135416</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,10 +516,24 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
         <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/app/server/rekap_files/rekap_tugas.xlsx
+++ b/src/app/server/rekap_files/rekap_tugas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Nama</t>
   </si>
@@ -31,16 +31,22 @@
     <t>62895378394020</t>
   </si>
   <si>
+    <t>Sudah</t>
+  </si>
+  <si>
+    <t>https://wgdxgzraacfhfbxvxuzy.supabase.co/storage/v1/object/public/submissions/submissions/1741161536351.pdf</t>
+  </si>
+  <si>
+    <t>Adek</t>
+  </si>
+  <si>
+    <t>62895396334564</t>
+  </si>
+  <si>
     <t>Belum</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Adek</t>
-  </si>
-  <si>
-    <t>62895396334564</t>
   </si>
   <si>
     <t>Budi</t>
@@ -488,52 +494,52 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/app/server/rekap_files/rekap_tugas.xlsx
+++ b/src/app/server/rekap_files/rekap_tugas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Nama</t>
   </si>
@@ -25,18 +25,6 @@
     <t>Link File</t>
   </si>
   <si>
-    <t>Joko</t>
-  </si>
-  <si>
-    <t>62895378394020</t>
-  </si>
-  <si>
-    <t>Sudah</t>
-  </si>
-  <si>
-    <t>https://wgdxgzraacfhfbxvxuzy.supabase.co/storage/v1/object/public/submissions/submissions/1741161536351.pdf</t>
-  </si>
-  <si>
     <t>Adek</t>
   </si>
   <si>
@@ -65,6 +53,12 @@
   </si>
   <si>
     <t>628817135416</t>
+  </si>
+  <si>
+    <t>Raka Tegar W</t>
+  </si>
+  <si>
+    <t>895378394020</t>
   </si>
 </sst>
 </file>
@@ -494,52 +488,52 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/app/server/rekap_files/rekap_tugas.xlsx
+++ b/src/app/server/rekap_files/rekap_tugas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Nama</t>
   </si>
@@ -25,40 +25,16 @@
     <t>Link File</t>
   </si>
   <si>
-    <t>Adek</t>
-  </si>
-  <si>
-    <t>62895396334564</t>
+    <t>Budi</t>
+  </si>
+  <si>
+    <t>6281332218505</t>
   </si>
   <si>
     <t>Belum</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Budi</t>
-  </si>
-  <si>
-    <t>6285198329149</t>
-  </si>
-  <si>
-    <t>Anang</t>
-  </si>
-  <si>
-    <t>6289514312154</t>
-  </si>
-  <si>
-    <t>Yoga</t>
-  </si>
-  <si>
-    <t>628817135416</t>
-  </si>
-  <si>
-    <t>Raka Tegar W</t>
-  </si>
-  <si>
-    <t>895378394020</t>
   </si>
 </sst>
 </file>
@@ -435,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,62 +453,6 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/app/server/rekap_files/rekap_tugas.xlsx
+++ b/src/app/server/rekap_files/rekap_tugas.xlsx
@@ -25,10 +25,10 @@
     <t>Link File</t>
   </si>
   <si>
-    <t>Budi</t>
-  </si>
-  <si>
-    <t>6281332218505</t>
+    <t>Adek</t>
+  </si>
+  <si>
+    <t>62895396334564</t>
   </si>
   <si>
     <t>Belum</t>

--- a/src/app/server/rekap_files/rekap_tugas.xlsx
+++ b/src/app/server/rekap_files/rekap_tugas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Nama</t>
   </si>
@@ -31,10 +31,28 @@
     <t>62895396334564</t>
   </si>
   <si>
+    <t>Sudah</t>
+  </si>
+  <si>
+    <t>"https://wgdxgzraacfhfbxvxuzy.supabase.co";/storage/v1/object/public/submissions/submissions/1742193980866.pdf</t>
+  </si>
+  <si>
+    <t>Budi</t>
+  </si>
+  <si>
+    <t>62895378394026</t>
+  </si>
+  <si>
     <t>Belum</t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Raka Tegar W</t>
+  </si>
+  <si>
+    <t>62895396334563</t>
   </si>
 </sst>
 </file>
@@ -411,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -454,6 +472,34 @@
       </c>
       <c r="D3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
